--- a/results/cifar10_training/results_ewc_cifar10.xlsx
+++ b/results/cifar10_training/results_ewc_cifar10.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.27312003306257</v>
+        <v>1.260575887148942</v>
       </c>
       <c r="D3">
-        <v>0.9306467771530151</v>
+        <v>0.9804838895797729</v>
       </c>
       <c r="E3">
-        <v>30.85999870300293</v>
+        <v>30.01</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.9451957489013671</v>
+        <v>1.004116226196289</v>
       </c>
       <c r="J3">
-        <v>61.71999740600586</v>
+        <v>60.02</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9137993004263901</v>
+        <v>0.9486514223300344</v>
       </c>
       <c r="D4">
-        <v>0.7744904557863871</v>
+        <v>0.8451699614524841</v>
       </c>
       <c r="E4">
-        <v>33.48999786376953</v>
+        <v>32.84</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>14.70768178710937</v>
+        <v>12.29164345703125</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.795797685297524</v>
+        <v>0.8265738089879354</v>
       </c>
       <c r="D5">
-        <v>0.7360865672429403</v>
+        <v>0.7982231974601746</v>
       </c>
       <c r="E5">
-        <v>35.52999877929688</v>
+        <v>34.19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.8222557464599609</v>
+        <v>0.8549927124023438</v>
       </c>
       <c r="J5">
-        <v>66.97999572753906</v>
+        <v>65.68000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7124145602792259</v>
+        <v>0.7480377676041146</v>
       </c>
       <c r="D6">
-        <v>0.6814023653666178</v>
+        <v>0.6830336451530457</v>
       </c>
       <c r="E6">
-        <v>36.98999786376953</v>
+        <v>35.77</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>12.0567728515625</v>
+        <v>12.5458091796875</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.636313597603542</v>
+        <v>0.6895363747588987</v>
       </c>
       <c r="D7">
-        <v>0.5806217590967814</v>
+        <v>0.6433323621749878</v>
       </c>
       <c r="E7">
-        <v>37.84999847412109</v>
+        <v>36.8</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.7482089111328125</v>
+        <v>0.7950039062499999</v>
       </c>
       <c r="J7">
-        <v>71.05999755859375</v>
+        <v>68.38</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5780132034929787</v>
+        <v>0.6136739089236996</v>
       </c>
       <c r="D8">
-        <v>0.674202541510264</v>
+        <v>0.6564995646476746</v>
       </c>
       <c r="E8">
-        <v>35.79000091552734</v>
+        <v>36.4</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>14.14352153320313</v>
+        <v>12.1932953125</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5394752939057544</v>
+        <v>0.575621827588818</v>
       </c>
       <c r="D9">
-        <v>0.5776026546955109</v>
+        <v>0.6235466599464417</v>
       </c>
       <c r="E9">
-        <v>37.81999969482422</v>
+        <v>37.73</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.6896452362060547</v>
+        <v>0.728603712463379</v>
       </c>
       <c r="J9">
-        <v>73.97999572753906</v>
+        <v>71.54000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5016653263956551</v>
+        <v>0.5310858800643827</v>
       </c>
       <c r="D10">
-        <v>0.5463654398918152</v>
+        <v>0.6071313619613647</v>
       </c>
       <c r="E10">
-        <v>39.86999893188477</v>
+        <v>38.49</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>13.56236108398437</v>
+        <v>12.36455400390625</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4515560451077252</v>
+        <v>0.4852058068523562</v>
       </c>
       <c r="D11">
-        <v>0.5407308836778005</v>
+        <v>0.5293675661087036</v>
       </c>
       <c r="E11">
-        <v>39.72999954223633</v>
+        <v>39.32</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.635959716796875</v>
+        <v>0.6829081237792969</v>
       </c>
       <c r="J11">
-        <v>75.69999694824219</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4137094393978274</v>
+        <v>0.4459931079934283</v>
       </c>
       <c r="D12">
-        <v>0.5206687847773234</v>
+        <v>0.7131729125976562</v>
       </c>
       <c r="E12">
-        <v>39.36999893188477</v>
+        <v>36.31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>14.34461411132813</v>
+        <v>12.63162797851563</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3762853748914672</v>
+        <v>0.429373631632425</v>
       </c>
       <c r="D13">
-        <v>0.5103017489115397</v>
+        <v>0.5972107648849487</v>
       </c>
       <c r="E13">
-        <v>40.18999862670898</v>
+        <v>39.64</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.7204152297973633</v>
+        <v>0.6745395614624023</v>
       </c>
       <c r="J13">
-        <v>71.58000183105469</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3632748553423378</v>
+        <v>0.3747505915116489</v>
       </c>
       <c r="D14">
-        <v>0.4894364873568217</v>
+        <v>0.56401127576828</v>
       </c>
       <c r="E14">
-        <v>40.11999893188477</v>
+        <v>39.39</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>14.81577763671875</v>
+        <v>14.642528125</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3077137713752142</v>
+        <v>0.346247356597001</v>
       </c>
       <c r="D15">
-        <v>0.4886486232280731</v>
+        <v>0.5527910590171814</v>
       </c>
       <c r="E15">
-        <v>40.39999771118164</v>
+        <v>40.11</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.6389792175292969</v>
+        <v>0.6413675079345703</v>
       </c>
       <c r="J15">
-        <v>75.63999938964844</v>
+        <v>75.45999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2921865231137935</v>
+        <v>0.3182932726009105</v>
       </c>
       <c r="D16">
-        <v>0.4916561643282573</v>
+        <v>0.5460097193717957</v>
       </c>
       <c r="E16">
-        <v>40.70000076293945</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>13.72205874023438</v>
+        <v>11.75954389648438</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.2501936433761101</v>
+        <v>0.4032420763155309</v>
       </c>
       <c r="D17">
-        <v>0.5373061001300812</v>
+        <v>0.460549920797348</v>
       </c>
       <c r="E17">
-        <v>39.93000030517578</v>
+        <v>39.79</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.5583930526733398</v>
+        <v>0.5959105667114257</v>
       </c>
       <c r="J17">
-        <v>79.73999786376953</v>
+        <v>76.98</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.216368548026899</v>
+        <v>0.3834783821328869</v>
       </c>
       <c r="D18">
-        <v>0.5446692307790121</v>
+        <v>0.4927337169647217</v>
       </c>
       <c r="E18">
-        <v>40.53999710083008</v>
+        <v>40.1</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>12.92768056640625</v>
+        <v>16.4713591796875</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1943920964026839</v>
+        <v>0.3702333578007008</v>
       </c>
       <c r="D19">
-        <v>0.4834448893864949</v>
+        <v>0.5211668014526367</v>
       </c>
       <c r="E19">
-        <v>40.57999801635742</v>
+        <v>40.15</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.5691176177978515</v>
+        <v>0.5685437438964843</v>
       </c>
       <c r="J19">
-        <v>79.45999908447266</v>
+        <v>78.64</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1634578924716973</v>
+        <v>0.3609383469674645</v>
       </c>
       <c r="D20">
-        <v>0.6104856332143148</v>
+        <v>0.5046526789665222</v>
       </c>
       <c r="E20">
-        <v>40.52000045776367</v>
+        <v>40.2</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>15.29084404296875</v>
+        <v>15.77581186523438</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1350006120112853</v>
+        <v>0.3460475909031503</v>
       </c>
       <c r="D21">
-        <v>0.5716612339019775</v>
+        <v>0.5010597705841064</v>
       </c>
       <c r="E21">
-        <v>40.93000030517578</v>
+        <v>40.22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.5733331314086914</v>
+        <v>0.7480529663085937</v>
       </c>
       <c r="J21">
-        <v>78.73999786376953</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1210486446393699</v>
+        <v>0.3372752154018821</v>
       </c>
       <c r="D22">
-        <v>0.6553722818692526</v>
+        <v>0.4761778116226196</v>
       </c>
       <c r="E22">
-        <v>39.89999771118164</v>
+        <v>40.25</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>16.0000962890625</v>
+        <v>15.90286323242188</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.09961714810593342</v>
+        <v>0.3771005149294691</v>
       </c>
       <c r="D23">
-        <v>0.6069710850715637</v>
+        <v>0.4840681254863739</v>
       </c>
       <c r="E23">
-        <v>40.70000076293945</v>
+        <v>40.07</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.542791049194336</v>
+        <v>0.575922346496582</v>
       </c>
       <c r="J23">
-        <v>80.37999725341797</v>
+        <v>79.28</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.07846173533518624</v>
+        <v>0.3719586567665503</v>
       </c>
       <c r="D24">
-        <v>0.6125011344750723</v>
+        <v>0.4922926425933838</v>
       </c>
       <c r="E24">
-        <v>40.70999908447266</v>
+        <v>39.94</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>16.593953515625</v>
+        <v>18.62882724609375</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.113150927775759</v>
+        <v>0.3678383151205575</v>
       </c>
       <c r="D25">
-        <v>0.5214176376660665</v>
+        <v>0.4950342774391174</v>
       </c>
       <c r="E25">
-        <v>41.41999816894531</v>
+        <v>40.18</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.543121842956543</v>
+        <v>0.5921133758544922</v>
       </c>
       <c r="J25">
-        <v>80.23999786376953</v>
+        <v>78.78</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.09428075213379007</v>
+        <v>0.3647706624938221</v>
       </c>
       <c r="D26">
-        <v>0.4918231268723806</v>
+        <v>0.5125269889831543</v>
       </c>
       <c r="E26">
-        <v>41.31999969482422</v>
+        <v>40.01</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>16.45605151367187</v>
+        <v>18.18119692382813</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.08485891745705915</v>
+        <v>0.3616201150708082</v>
       </c>
       <c r="D27">
-        <v>0.5842621922492981</v>
+        <v>0.4997056722640991</v>
       </c>
       <c r="E27">
-        <v>41.29999923706055</v>
+        <v>40.17</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.5352578979492187</v>
+        <v>0.5534423294067383</v>
       </c>
       <c r="J27">
-        <v>80.79999542236328</v>
+        <v>80.22</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.07751548565863593</v>
+        <v>0.3765499955270348</v>
       </c>
       <c r="D28">
-        <v>0.5161874890327454</v>
+        <v>0.5040228962898254</v>
       </c>
       <c r="E28">
-        <v>41.36000061035156</v>
+        <v>40.11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>16.04699252929688</v>
+        <v>16.93743715820312</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.07080995667029202</v>
+        <v>0.3737025503220597</v>
       </c>
       <c r="D29">
-        <v>0.5720631082852682</v>
+        <v>0.5264914035797119</v>
       </c>
       <c r="E29">
-        <v>41.38999938964844</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.5470087585449219</v>
+        <v>0.5699333709716797</v>
       </c>
       <c r="J29">
-        <v>81.40000152587891</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1204552823692803</v>
+        <v>0.3724359828766768</v>
       </c>
       <c r="D30">
-        <v>0.4398473799228668</v>
+        <v>0.5213801860809326</v>
       </c>
       <c r="E30">
-        <v>41.43999862670898</v>
+        <v>40.14</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>15.99442822265625</v>
+        <v>18.61952919921875</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1028568729213098</v>
+        <v>0.3709731174678337</v>
       </c>
       <c r="D31">
-        <v>0.5554238359133402</v>
+        <v>0.498083770275116</v>
       </c>
       <c r="E31">
-        <v>41.45000076293945</v>
+        <v>40.12</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.5904757034301757</v>
+        <v>0.5586002731323242</v>
       </c>
       <c r="J31">
-        <v>79.86000061035156</v>
+        <v>79.58</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.09630012657584214</v>
+        <v>0.3699288933984632</v>
       </c>
       <c r="D32">
-        <v>0.4971187114715576</v>
+        <v>0.5029654502868652</v>
       </c>
       <c r="E32">
-        <v>41.43999862670898</v>
+        <v>40.14</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>18.6780267578125</v>
+        <v>18.86773247070312</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.09169364735726418</v>
+        <v>0.3796538015206655</v>
       </c>
       <c r="D33">
-        <v>0.5051609178384145</v>
+        <v>0.4871831834316254</v>
       </c>
       <c r="E33">
-        <v>41.43999862670898</v>
+        <v>40.06</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.5882753646850586</v>
+        <v>0.544950294494629</v>
       </c>
       <c r="J33">
-        <v>81.07999420166016</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.08844673660833662</v>
+        <v>0.3754449123289527</v>
       </c>
       <c r="D34">
-        <v>0.4943658113479614</v>
+        <v>0.5158652663230896</v>
       </c>
       <c r="E34">
-        <v>41.53999710083008</v>
+        <v>40.1</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>18.91247973632813</v>
+        <v>19.35203862304688</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.08537174612889445</v>
+        <v>0.3748634067492757</v>
       </c>
       <c r="D35">
-        <v>0.4756069580713908</v>
+        <v>0.527955174446106</v>
       </c>
       <c r="E35">
-        <v>41.34999847412109</v>
+        <v>40.14</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.5939992523193359</v>
+        <v>0.5538187286376953</v>
       </c>
       <c r="J35">
-        <v>81.15999603271484</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.104443973157464</v>
+        <v>0.374116888133491</v>
       </c>
       <c r="D36">
-        <v>0.5327489972114563</v>
+        <v>0.5205632448196411</v>
       </c>
       <c r="E36">
-        <v>41.37999725341797</v>
+        <v>40.17</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>18.32686528320313</v>
+        <v>19.10998881835938</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.1019989145177651</v>
+        <v>0.373500535885493</v>
       </c>
       <c r="D37">
-        <v>0.4685322145620982</v>
+        <v>0.5384513735771179</v>
       </c>
       <c r="E37">
-        <v>41.36999893188477</v>
+        <v>40.12</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1465,28 +1465,13 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.6555303604125976</v>
+        <v>0.5427127258300781</v>
       </c>
       <c r="J37">
-        <v>81.04000091552734</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>0.09994507938381134</v>
-      </c>
-      <c r="D38">
-        <v>0.4885662992795308</v>
-      </c>
-      <c r="E38">
-        <v>41.39999771118164</v>
-      </c>
       <c r="G38">
         <v>1</v>
       </c>
@@ -1494,28 +1479,13 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>21.687079296875</v>
+        <v>18.9523046875</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>0.09806041658772685</v>
-      </c>
-      <c r="D39">
-        <v>0.4756398995717366</v>
-      </c>
-      <c r="E39">
-        <v>41.38999938964844</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -1523,28 +1493,13 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.6644937377929687</v>
+        <v>0.5493138885498047</v>
       </c>
       <c r="J39">
-        <v>81.86000061035156</v>
+        <v>80.44</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>0.09649625157074231</v>
-      </c>
-      <c r="D40">
-        <v>0.5095254679520925</v>
-      </c>
-      <c r="E40">
-        <v>41.38999938964844</v>
-      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -1552,28 +1507,13 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>21.94768564453125</v>
+        <v>19.80143862304687</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>0.1048671533240051</v>
-      </c>
-      <c r="D41">
-        <v>0.514487236738205</v>
-      </c>
-      <c r="E41">
-        <v>41.41999816894531</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -1581,28 +1521,13 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.7206538208007812</v>
+        <v>0.5398189010620117</v>
       </c>
       <c r="J41">
-        <v>79.79999542236328</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>0.104121320979382</v>
-      </c>
-      <c r="D42">
-        <v>0.4882654945055644</v>
-      </c>
-      <c r="E42">
-        <v>41.40999984741211</v>
-      </c>
       <c r="G42">
         <v>1</v>
       </c>
@@ -1610,28 +1535,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>21.1277619140625</v>
+        <v>19.33500297851563</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.1034659021571884</v>
-      </c>
-      <c r="D43">
-        <v>0.4866238534450531</v>
-      </c>
-      <c r="E43">
-        <v>41.38999938964844</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -1639,28 +1549,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.7054856994628906</v>
+        <v>0.5432887100219727</v>
       </c>
       <c r="J43">
-        <v>81.40000152587891</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.1029557639021214</v>
-      </c>
-      <c r="D44">
-        <v>0.5083108345667521</v>
-      </c>
-      <c r="E44">
-        <v>41.41999816894531</v>
-      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -1668,28 +1563,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>23.12564384765625</v>
+        <v>18.49067563476563</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.1024124339768072</v>
-      </c>
-      <c r="D45">
-        <v>0.4547160963217418</v>
-      </c>
-      <c r="E45">
-        <v>41.39999771118164</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -1697,10 +1577,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.7768795898437501</v>
+        <v>0.5415094375610352</v>
       </c>
       <c r="J45">
-        <v>81.41999816894531</v>
+        <v>79.88</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,7 +1591,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>25.9128728515625</v>
+        <v>18.65659526367187</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1725,10 +1605,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.5940506530761719</v>
+        <v>0.5403557083129883</v>
       </c>
       <c r="J47">
-        <v>82.83999633789062</v>
+        <v>80.36</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1739,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>23.07206923828125</v>
+        <v>18.76741513671875</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1753,10 +1633,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.6021099838256836</v>
+        <v>0.5427093643188476</v>
       </c>
       <c r="J49">
-        <v>82.63999938964844</v>
+        <v>80.02</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1767,7 +1647,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>23.81114775390625</v>
+        <v>19.09353081054687</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1781,10 +1661,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.6221888854980469</v>
+        <v>0.5402156524658203</v>
       </c>
       <c r="J51">
-        <v>82.59999847412109</v>
+        <v>80.34</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1795,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>24.3241169921875</v>
+        <v>19.0250439453125</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1809,10 +1689,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.630586848449707</v>
+        <v>0.5428064376831054</v>
       </c>
       <c r="J53">
-        <v>82.72000122070312</v>
+        <v>80.22</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1823,7 +1703,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>25.027870703125</v>
+        <v>18.57200874023437</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1837,10 +1717,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.6449465957641601</v>
+        <v>0.5422357269287109</v>
       </c>
       <c r="J55">
-        <v>82.77999877929688</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1851,7 +1731,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>25.62106943359375</v>
+        <v>18.56312192382812</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1865,10 +1745,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.5687911331176758</v>
+        <v>0.5412873458862305</v>
       </c>
       <c r="J57">
-        <v>82.87999725341797</v>
+        <v>80.28</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1879,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>20.6307681640625</v>
+        <v>18.525004296875</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1893,10 +1773,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.5766276565551758</v>
+        <v>0.5408724716186524</v>
       </c>
       <c r="J59">
-        <v>82.90000152587891</v>
+        <v>80.23999999999999</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1907,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>21.71712314453125</v>
+        <v>18.542296484375</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1921,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.5860953018188476</v>
+        <v>0.5410632339477539</v>
       </c>
       <c r="J61">
-        <v>82.87999725341797</v>
+        <v>80.28</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1935,7 +1815,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>22.58429912109375</v>
+        <v>18.62139267578125</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1949,10 +1829,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.5908351394653321</v>
+        <v>0.5453242492675782</v>
       </c>
       <c r="J63">
-        <v>82.87999725341797</v>
+        <v>80.12</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1963,7 +1843,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>23.04393115234375</v>
+        <v>18.65601298828125</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1977,10 +1857,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.5977754043579102</v>
+        <v>0.543958901977539</v>
       </c>
       <c r="J65">
-        <v>83.07999420166016</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1991,7 +1871,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>23.5233349609375</v>
+        <v>18.62554462890625</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2005,10 +1885,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.6016485229492188</v>
+        <v>0.5434235427856445</v>
       </c>
       <c r="J67">
-        <v>82.69999694824219</v>
+        <v>80.28</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2019,7 +1899,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>23.78077431640625</v>
+        <v>18.62983754882812</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2033,10 +1913,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.5717496414184571</v>
+        <v>0.5429897659301758</v>
       </c>
       <c r="J69">
-        <v>82.75999450683594</v>
+        <v>80.34</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2047,7 +1927,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>21.00116889648438</v>
+        <v>18.61437939453125</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2061,10 +1941,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.573749658203125</v>
+        <v>0.5426849075317383</v>
       </c>
       <c r="J71">
-        <v>82.73999786376953</v>
+        <v>80.23999999999999</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2075,233 +1955,9 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>21.29531845703125</v>
+        <v>18.59252866210937</v>
       </c>
       <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10">
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>36</v>
-      </c>
-      <c r="I73">
-        <v>0.5748605270385743</v>
-      </c>
-      <c r="J73">
-        <v>82.79999542236328</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>36</v>
-      </c>
-      <c r="I74">
-        <v>21.46723095703125</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10">
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>37</v>
-      </c>
-      <c r="I75">
-        <v>0.5769463989257813</v>
-      </c>
-      <c r="J75">
-        <v>82.77999877929688</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10">
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>37</v>
-      </c>
-      <c r="I76">
-        <v>21.6870419921875</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10">
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>38</v>
-      </c>
-      <c r="I77">
-        <v>0.5794119369506836</v>
-      </c>
-      <c r="J77">
-        <v>82.77999877929688</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10">
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>38</v>
-      </c>
-      <c r="I78">
-        <v>21.9093451171875</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>39</v>
-      </c>
-      <c r="I79">
-        <v>0.5693589889526367</v>
-      </c>
-      <c r="J79">
-        <v>82.83999633789062</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>39</v>
-      </c>
-      <c r="I80">
-        <v>20.7377083984375</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10">
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>40</v>
-      </c>
-      <c r="I81">
-        <v>0.5700569259643554</v>
-      </c>
-      <c r="J81">
-        <v>82.81999969482422</v>
-      </c>
-    </row>
-    <row r="82" spans="7:10">
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>40</v>
-      </c>
-      <c r="I82">
-        <v>20.81992329101562</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>0.570648600769043</v>
-      </c>
-      <c r="J83">
-        <v>82.77999877929688</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>20.89905532226562</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>0.5712633392333984</v>
-      </c>
-      <c r="J85">
-        <v>82.83999633789062</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>20.97529916992188</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>0.5717930038452148</v>
-      </c>
-      <c r="J87">
-        <v>82.79999542236328</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>21.04484833984375</v>
-      </c>
-      <c r="J88">
         <v>0</v>
       </c>
     </row>
@@ -2316,7 +1972,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2375,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.103136152755924</v>
+        <v>2.678252747872981</v>
       </c>
       <c r="D3">
-        <v>0.5927078525225321</v>
+        <v>1.167803764343262</v>
       </c>
       <c r="E3">
-        <v>40.40999603271484</v>
+        <v>36.89</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2390,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>7.852573486328125</v>
+        <v>7.01224990234375</v>
       </c>
       <c r="J3">
-        <v>1.699999928474426</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2404,13 +2060,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.6250342908428936</v>
+        <v>2.463798758944845</v>
       </c>
       <c r="D4">
-        <v>0.579801619052887</v>
+        <v>0.6150368452072144</v>
       </c>
       <c r="E4">
-        <v>40.22999954223633</v>
+        <v>39.57</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2419,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.5760290115356446</v>
+        <v>0.7907117065429687</v>
       </c>
       <c r="J4">
-        <v>79.1199951171875</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2433,13 +2089,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5720191610053302</v>
+        <v>0.6935245603080687</v>
       </c>
       <c r="D5">
-        <v>0.5490623911221822</v>
+        <v>0.5256096124649048</v>
       </c>
       <c r="E5">
-        <v>40.47999954223633</v>
+        <v>40.8</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2448,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>8.986066772460937</v>
+        <v>7.022905981445312</v>
       </c>
       <c r="J5">
-        <v>1.039999961853027</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2462,13 +2118,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5555798893536978</v>
+        <v>0.5774375071855096</v>
       </c>
       <c r="D6">
-        <v>0.5481848319371542</v>
+        <v>0.4780604243278503</v>
       </c>
       <c r="E6">
-        <v>40.36999893188477</v>
+        <v>41.42</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2477,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.5578808151245117</v>
+        <v>0.5711011901855468</v>
       </c>
       <c r="J6">
-        <v>79.41999816894531</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2491,13 +2147,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5630208416198327</v>
+        <v>0.5329847893094629</v>
       </c>
       <c r="D7">
-        <v>0.5404869218667349</v>
+        <v>0.4661048054695129</v>
       </c>
       <c r="E7">
-        <v>41.09999847412109</v>
+        <v>41.36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2506,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>9.775517065429687</v>
+        <v>7.627111791992188</v>
       </c>
       <c r="J7">
-        <v>0.9199999570846558</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2520,13 +2176,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5338778684778911</v>
+        <v>0.5530945467270487</v>
       </c>
       <c r="D8">
-        <v>0.5130853752295176</v>
+        <v>0.5181205272674561</v>
       </c>
       <c r="E8">
-        <v>41.20000076293945</v>
+        <v>40.64</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2535,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.5393017608642579</v>
+        <v>0.5140213592529297</v>
       </c>
       <c r="J8">
-        <v>80.04000091552734</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2549,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5261260818659774</v>
+        <v>0.5759466365585483</v>
       </c>
       <c r="D9">
-        <v>0.5271992186705271</v>
+        <v>0.4938627183437347</v>
       </c>
       <c r="E9">
-        <v>41.44000244140625</v>
+        <v>40.92</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2564,10 +2220,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>10.25427834472656</v>
+        <v>8.387111547851562</v>
       </c>
       <c r="J9">
-        <v>0.8999999761581421</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2578,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5160707635123555</v>
+        <v>0.5585427017715888</v>
       </c>
       <c r="D10">
-        <v>0.5087799827257792</v>
+        <v>0.4461704194545746</v>
       </c>
       <c r="E10">
-        <v>41.45000076293945</v>
+        <v>42.08</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2593,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.532066976928711</v>
+        <v>0.4735520797729492</v>
       </c>
       <c r="J10">
-        <v>79.83999633789062</v>
+        <v>82.68000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2607,13 +2263,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5187851200258828</v>
+        <v>0.4720178115658644</v>
       </c>
       <c r="D11">
-        <v>0.4880010883013408</v>
+        <v>0.4750486612319946</v>
       </c>
       <c r="E11">
-        <v>41.54000091552734</v>
+        <v>41.53</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2622,10 +2278,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>10.7807951171875</v>
+        <v>9.508216503906249</v>
       </c>
       <c r="J11">
-        <v>0.8399999737739563</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2636,13 +2292,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5074346053406475</v>
+        <v>0.5928756379015078</v>
       </c>
       <c r="D12">
-        <v>0.4829172094662984</v>
+        <v>0.4580712914466858</v>
       </c>
       <c r="E12">
-        <v>41.41999816894531</v>
+        <v>41.70999999999999</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2651,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.5081195068359375</v>
+        <v>0.4768640594482422</v>
       </c>
       <c r="J12">
-        <v>81.36000061035156</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2665,13 +2321,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5045778327356509</v>
+        <v>0.4950439459909268</v>
       </c>
       <c r="D13">
-        <v>0.478224774201711</v>
+        <v>0.4204404056072235</v>
       </c>
       <c r="E13">
-        <v>41.6099967956543</v>
+        <v>42.14</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2680,10 +2336,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>11.08826274414062</v>
+        <v>10.61050068359375</v>
       </c>
       <c r="J13">
-        <v>0.7199999690055847</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2694,13 +2350,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4983789516173727</v>
+        <v>0.464055768358029</v>
       </c>
       <c r="D14">
-        <v>0.5158324440320333</v>
+        <v>0.4422735869884491</v>
       </c>
       <c r="E14">
-        <v>41.45999526977539</v>
+        <v>41.92</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2709,10 +2365,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.4985897872924805</v>
+        <v>0.5169069076538086</v>
       </c>
       <c r="J14">
-        <v>81.68000030517578</v>
+        <v>81.12</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2723,13 +2379,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4999740656798448</v>
+        <v>0.4925473385710057</v>
       </c>
       <c r="D15">
-        <v>0.510392814874649</v>
+        <v>0.4455586075782776</v>
       </c>
       <c r="E15">
-        <v>41.27999877929688</v>
+        <v>42.12</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2738,10 +2394,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>11.46846274414063</v>
+        <v>9.549807397460938</v>
       </c>
       <c r="J15">
-        <v>0.6599999666213989</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2752,13 +2408,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4873876394779701</v>
+        <v>0.5075643871857868</v>
       </c>
       <c r="D16">
-        <v>0.4780998130639394</v>
+        <v>0.4027697741985321</v>
       </c>
       <c r="E16">
-        <v>41.78999710083008</v>
+        <v>42.95</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2767,10 +2423,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.4893624862670898</v>
+        <v>0.5041584609985351</v>
       </c>
       <c r="J16">
-        <v>82.22000122070312</v>
+        <v>81.66</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2781,13 +2437,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4820639740645401</v>
+        <v>0.4301386855966677</v>
       </c>
       <c r="D17">
-        <v>0.4582466880480449</v>
+        <v>0.3747517466545105</v>
       </c>
       <c r="E17">
-        <v>41.66999816894531</v>
+        <v>43.26</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2796,10 +2452,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>11.93676533203125</v>
+        <v>9.8892533203125</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2810,13 +2466,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4760107424685626</v>
+        <v>0.3959517050080183</v>
       </c>
       <c r="D18">
-        <v>0.4915740787982941</v>
+        <v>0.3790908753871918</v>
       </c>
       <c r="E18">
-        <v>41.71999740600586</v>
+        <v>42.95</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2825,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.4867449844360351</v>
+        <v>0.4467713989257813</v>
       </c>
       <c r="J18">
-        <v>82.40000152587891</v>
+        <v>83.81999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2839,13 +2495,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4803282364112575</v>
+        <v>0.4179832915949628</v>
       </c>
       <c r="D19">
-        <v>0.4732069969177246</v>
+        <v>0.3837031722068787</v>
       </c>
       <c r="E19">
-        <v>42.2599983215332</v>
+        <v>42.86</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2854,10 +2510,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>12.25497490234375</v>
+        <v>11.41355063476563</v>
       </c>
       <c r="J19">
-        <v>0.5399999618530273</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2868,13 +2524,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4648228648716841</v>
+        <v>0.4770133958114841</v>
       </c>
       <c r="D20">
-        <v>0.457874059677124</v>
+        <v>0.3807030618190765</v>
       </c>
       <c r="E20">
-        <v>41.89999771118164</v>
+        <v>43.59</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2883,10 +2539,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.4792864807128907</v>
+        <v>0.4608868896484375</v>
       </c>
       <c r="J20">
-        <v>82.54000091552734</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2897,13 +2553,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4941093703595603</v>
+        <v>0.3720043073824751</v>
       </c>
       <c r="D21">
-        <v>0.4508756101131439</v>
+        <v>0.3562772274017334</v>
       </c>
       <c r="E21">
-        <v>42.27999877929688</v>
+        <v>43.34</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2912,10 +2568,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>12.32483725585938</v>
+        <v>10.89920107421875</v>
       </c>
       <c r="J21">
-        <v>0.5199999809265137</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2926,13 +2582,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4628225984127541</v>
+        <v>0.4028355944447401</v>
       </c>
       <c r="D22">
-        <v>0.4412694176038106</v>
+        <v>0.3618585765361786</v>
       </c>
       <c r="E22">
-        <v>42.32999801635742</v>
+        <v>43.31</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2941,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.4779309875488281</v>
+        <v>0.458615885925293</v>
       </c>
       <c r="J22">
-        <v>82.31999969482422</v>
+        <v>83.31999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2955,13 +2611,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4564735046247156</v>
+        <v>0.407330507185401</v>
       </c>
       <c r="D23">
-        <v>0.4508176445960999</v>
+        <v>0.3943819999694824</v>
       </c>
       <c r="E23">
-        <v>42.20000076293945</v>
+        <v>42.72</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2970,10 +2626,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>12.71271884765625</v>
+        <v>11.26323715820313</v>
       </c>
       <c r="J23">
-        <v>0.4199999868869781</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2984,13 +2640,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4556941964277407</v>
+        <v>0.4958319089761594</v>
       </c>
       <c r="D24">
-        <v>0.4372689823309581</v>
+        <v>0.4301013350486755</v>
       </c>
       <c r="E24">
-        <v>42.40999984741211</v>
+        <v>42.34</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2999,10 +2655,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.4647118087768555</v>
+        <v>0.4329704818725586</v>
       </c>
       <c r="J24">
-        <v>82.79999542236328</v>
+        <v>84.18000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3013,13 +2669,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4483470444272204</v>
+        <v>0.4598584681507049</v>
       </c>
       <c r="D25">
-        <v>0.4563475648562114</v>
+        <v>0.3819872736930847</v>
       </c>
       <c r="E25">
-        <v>42.45999908447266</v>
+        <v>43.28</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3028,10 +2684,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>12.92490703125</v>
+        <v>11.68570473632813</v>
       </c>
       <c r="J25">
-        <v>0.3400000035762787</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3042,13 +2698,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.4417444147714755</v>
+        <v>0.3758914649971132</v>
       </c>
       <c r="D26">
-        <v>0.4617801308631897</v>
+        <v>0.4211940765380859</v>
       </c>
       <c r="E26">
-        <v>41.81999969482422</v>
+        <v>41.72</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3057,10 +2713,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.4740084091186523</v>
+        <v>0.4380549041748047</v>
       </c>
       <c r="J26">
-        <v>82.57999420166016</v>
+        <v>83.76000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3071,13 +2727,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.440436938913857</v>
+        <v>0.3702632113685453</v>
       </c>
       <c r="D27">
-        <v>0.4770429829756419</v>
+        <v>0.3459009528160095</v>
       </c>
       <c r="E27">
-        <v>41.87999725341797</v>
+        <v>43.88</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3086,10 +2742,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>13.40580556640625</v>
+        <v>12.54810151367188</v>
       </c>
       <c r="J27">
-        <v>0.239999994635582</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3100,13 +2756,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.453086600555637</v>
+        <v>0.3157305655682959</v>
       </c>
       <c r="D28">
-        <v>0.455698162317276</v>
+        <v>0.3447884023189545</v>
       </c>
       <c r="E28">
-        <v>42.2599983215332</v>
+        <v>43.98</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3115,10 +2771,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.4746246810913086</v>
+        <v>0.4344120277404785</v>
       </c>
       <c r="J28">
-        <v>82.31999969482422</v>
+        <v>84.12</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3129,13 +2785,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.4333107357587271</v>
+        <v>0.3140922011883278</v>
       </c>
       <c r="D29">
-        <v>0.4640078544616699</v>
+        <v>0.3405754566192627</v>
       </c>
       <c r="E29">
-        <v>42.13999938964844</v>
+        <v>43.82</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3144,10 +2800,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>13.72957299804687</v>
+        <v>11.20692802734375</v>
       </c>
       <c r="J29">
-        <v>0.199999988079071</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3158,13 +2814,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.3983312140150768</v>
+        <v>0.3560784800750453</v>
       </c>
       <c r="D30">
-        <v>0.4461036423842112</v>
+        <v>0.3353053033351898</v>
       </c>
       <c r="E30">
-        <v>42.48999786376953</v>
+        <v>43.84999999999999</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3173,10 +2829,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.4612624984741211</v>
+        <v>0.4158635093688965</v>
       </c>
       <c r="J30">
-        <v>83.37999725341797</v>
+        <v>85.78</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3187,13 +2843,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.3934750649018016</v>
+        <v>0.3465412741269522</v>
       </c>
       <c r="D31">
-        <v>0.4416662752628326</v>
+        <v>0.3377724587917328</v>
       </c>
       <c r="E31">
-        <v>42.38999557495117</v>
+        <v>43.72</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3202,10 +2858,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>13.84587543945313</v>
+        <v>12.87109106445313</v>
       </c>
       <c r="J31">
-        <v>0.2599999904632568</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3216,13 +2872,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.3905908283663959</v>
+        <v>0.3391877876791528</v>
       </c>
       <c r="D32">
-        <v>0.4266870319843292</v>
+        <v>0.3270951807498932</v>
       </c>
       <c r="E32">
-        <v>42.61000061035156</v>
+        <v>43.81</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3231,10 +2887,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.4613158401489258</v>
+        <v>0.3846431091308594</v>
       </c>
       <c r="J32">
-        <v>83.07999420166016</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3245,13 +2901,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3875700247481587</v>
+        <v>0.3378737908068711</v>
       </c>
       <c r="D33">
-        <v>0.4302995800971985</v>
+        <v>0.3409741520881653</v>
       </c>
       <c r="E33">
-        <v>42.72999954223633</v>
+        <v>44.05</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3260,10 +2916,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>13.8038669921875</v>
+        <v>12.54270546875</v>
       </c>
       <c r="J33">
-        <v>0.3199999928474426</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3274,13 +2930,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3817956430640647</v>
+        <v>0.3317560679544278</v>
       </c>
       <c r="D34">
-        <v>0.4279193778832753</v>
+        <v>0.3420494496822357</v>
       </c>
       <c r="E34">
-        <v>42.69999694824219</v>
+        <v>43.85</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3289,10 +2945,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.464773110961914</v>
+        <v>0.3898014846801758</v>
       </c>
       <c r="J34">
-        <v>83.1199951171875</v>
+        <v>85.78</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3303,13 +2959,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3798564481056803</v>
+        <v>0.3352043008416649</v>
       </c>
       <c r="D35">
-        <v>0.4310645759105682</v>
+        <v>0.3482050895690918</v>
       </c>
       <c r="E35">
-        <v>42.63999938964844</v>
+        <v>43.64</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3318,10 +2974,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>13.98773540039062</v>
+        <v>13.17111953125</v>
       </c>
       <c r="J35">
-        <v>0.2199999988079071</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3332,13 +2988,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3774885629735342</v>
+        <v>0.3589998570884146</v>
       </c>
       <c r="D36">
-        <v>0.4259435137112935</v>
+        <v>0.3398287892341614</v>
       </c>
       <c r="E36">
-        <v>42.80999755859375</v>
+        <v>43.84999999999999</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3347,10 +3003,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.4457567459106445</v>
+        <v>0.395990161895752</v>
       </c>
       <c r="J36">
-        <v>84.29999542236328</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3361,13 +3017,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3760265678894229</v>
+        <v>0.344129334620344</v>
       </c>
       <c r="D37">
-        <v>0.4366751511891683</v>
+        <v>0.349146842956543</v>
       </c>
       <c r="E37">
-        <v>42.72999954223633</v>
+        <v>43.77</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3376,10 +3032,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>14.32598149414063</v>
+        <v>13.05269711914062</v>
       </c>
       <c r="J37">
-        <v>0.239999994635582</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3390,13 +3046,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3729853499226454</v>
+        <v>0.3263061441541688</v>
       </c>
       <c r="D38">
-        <v>0.4218081732590993</v>
+        <v>0.3209704160690308</v>
       </c>
       <c r="E38">
-        <v>42.84999847412109</v>
+        <v>44.09</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3405,10 +3061,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.4519391418457031</v>
+        <v>0.3784825126647949</v>
       </c>
       <c r="J38">
-        <v>83.55999755859375</v>
+        <v>87.12</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3419,13 +3075,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.3716345557836983</v>
+        <v>0.2957310259826784</v>
       </c>
       <c r="D39">
-        <v>0.4433068335056305</v>
+        <v>0.3267266750335693</v>
       </c>
       <c r="E39">
-        <v>42.8599967956543</v>
+        <v>44.02</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3434,10 +3090,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>14.5557759765625</v>
+        <v>14.32297841796875</v>
       </c>
       <c r="J39">
-        <v>0.2199999988079071</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3448,13 +3104,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.3666458037810597</v>
+        <v>0.296957595925021</v>
       </c>
       <c r="D40">
-        <v>0.4225539267063141</v>
+        <v>0.3246512711048126</v>
       </c>
       <c r="E40">
-        <v>42.78999710083008</v>
+        <v>44.05</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3463,10 +3119,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.4349860626220703</v>
+        <v>0.3795127532958985</v>
       </c>
       <c r="J40">
-        <v>84.33999633789062</v>
+        <v>86.52</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3477,13 +3133,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.3659458787945228</v>
+        <v>0.3035996049884858</v>
       </c>
       <c r="D41">
-        <v>0.4261294007301331</v>
+        <v>0.3247047364711761</v>
       </c>
       <c r="E41">
-        <v>42.84000015258789</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3492,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>14.87733422851563</v>
+        <v>14.64929360351563</v>
       </c>
       <c r="J41">
-        <v>0.199999988079071</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3506,13 +3162,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.3648599313526619</v>
+        <v>0.2987745063818567</v>
       </c>
       <c r="D42">
-        <v>0.4059962431589763</v>
+        <v>0.3383574485778809</v>
       </c>
       <c r="E42">
-        <v>42.97999954223633</v>
+        <v>44.04</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3521,10 +3177,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.4285338760375977</v>
+        <v>0.3757238723754883</v>
       </c>
       <c r="J42">
-        <v>84.45999908447266</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3535,13 +3191,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.3629430875303299</v>
+        <v>0.322240269523326</v>
       </c>
       <c r="D43">
-        <v>0.4024596412976583</v>
+        <v>0.3357894420623779</v>
       </c>
       <c r="E43">
-        <v>42.97000122070312</v>
+        <v>43.99</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3550,10 +3206,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>14.91815815429688</v>
+        <v>15.59291821289063</v>
       </c>
       <c r="J43">
-        <v>0.2199999988079071</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3564,13 +3220,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.3593524515144224</v>
+        <v>0.2929999979773188</v>
       </c>
       <c r="D44">
-        <v>0.4258727629979451</v>
+        <v>0.3262070417404175</v>
       </c>
       <c r="E44">
-        <v>42.93000030517578</v>
+        <v>44.05</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3579,10 +3235,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.4358561981201172</v>
+        <v>0.3934676132202148</v>
       </c>
       <c r="J44">
-        <v>84.18000030517578</v>
+        <v>85.38</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3593,13 +3249,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.3567344085956977</v>
+        <v>0.2897403394061375</v>
       </c>
       <c r="D45">
-        <v>0.4167119761308034</v>
+        <v>0.3317019045352936</v>
       </c>
       <c r="E45">
-        <v>43.01999664306641</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3608,10 +3264,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>15.20684990234375</v>
+        <v>12.36056875</v>
       </c>
       <c r="J45">
-        <v>0.1400000005960464</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3622,13 +3278,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.354742343105921</v>
+        <v>0.2944396643376932</v>
       </c>
       <c r="D46">
-        <v>0.4264191687107086</v>
+        <v>0.3346529901027679</v>
       </c>
       <c r="E46">
-        <v>42.82999801635742</v>
+        <v>44.09</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3637,10 +3293,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.4277892837524414</v>
+        <v>0.4209605529785156</v>
       </c>
       <c r="J46">
-        <v>84.68000030517578</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3651,13 +3307,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.3539745784629651</v>
+        <v>0.292718350402708</v>
       </c>
       <c r="D47">
-        <v>0.4259237547715505</v>
+        <v>0.326779305934906</v>
       </c>
       <c r="E47">
-        <v>42.94999694824219</v>
+        <v>44.02</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3666,10 +3322,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>15.40436704101563</v>
+        <v>13.88646782226562</v>
       </c>
       <c r="J47">
-        <v>0.1599999964237213</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3680,13 +3336,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.3504853570848946</v>
+        <v>0.296667108206245</v>
       </c>
       <c r="D48">
-        <v>0.4040478567282359</v>
+        <v>0.3444434106349945</v>
       </c>
       <c r="E48">
-        <v>42.90999603271484</v>
+        <v>43.95</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3695,10 +3351,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.429624365234375</v>
+        <v>0.3817982360839844</v>
       </c>
       <c r="J48">
-        <v>84.75999450683594</v>
+        <v>86.52</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3709,13 +3365,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.3462969813405014</v>
+        <v>0.2957820302344919</v>
       </c>
       <c r="D49">
-        <v>0.4057391583919525</v>
+        <v>0.3438021838665009</v>
       </c>
       <c r="E49">
-        <v>42.95000076293945</v>
+        <v>44.04</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3724,10 +3380,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>15.63820834960937</v>
+        <v>14.73224252929687</v>
       </c>
       <c r="J49">
-        <v>0.2199999988079071</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3738,13 +3394,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.3448197940985362</v>
+        <v>0.2874008303250724</v>
       </c>
       <c r="D50">
-        <v>0.4186695019404094</v>
+        <v>0.3229537904262543</v>
       </c>
       <c r="E50">
-        <v>43.02999877929688</v>
+        <v>43.99</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3753,10 +3409,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.4447359451293945</v>
+        <v>0.4457393341064453</v>
       </c>
       <c r="J50">
-        <v>83.41999816894531</v>
+        <v>83.42</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3767,13 +3423,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.3437764966875557</v>
+        <v>0.2914513550638183</v>
       </c>
       <c r="D51">
-        <v>0.4232503672440847</v>
+        <v>0.3292148411273956</v>
       </c>
       <c r="E51">
-        <v>43.06000137329102</v>
+        <v>44.04</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3782,10 +3438,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>15.95842978515625</v>
+        <v>15.394305078125</v>
       </c>
       <c r="J51">
-        <v>0.1400000005960464</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3796,13 +3452,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.3413425685186696</v>
+        <v>0.2901448084086907</v>
       </c>
       <c r="D52">
-        <v>0.4076098998387654</v>
+        <v>0.3331658840179443</v>
       </c>
       <c r="E52">
-        <v>43.0099983215332</v>
+        <v>44.02</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -3811,10 +3467,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.4425780029296875</v>
+        <v>0.3503321144104004</v>
       </c>
       <c r="J52">
-        <v>83.6199951171875</v>
+        <v>87.64</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3825,13 +3481,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.3406057759998291</v>
+        <v>0.2902398111858988</v>
       </c>
       <c r="D53">
-        <v>0.4035599529743195</v>
+        <v>0.3348808884620667</v>
       </c>
       <c r="E53">
-        <v>43.06000137329102</v>
+        <v>44.04</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3840,28 +3496,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>16.07160771484375</v>
+        <v>16.32863505859375</v>
       </c>
       <c r="J53">
-        <v>0.1400000005960464</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.3458334680010633</v>
-      </c>
-      <c r="D54">
-        <v>0.4030528863271077</v>
-      </c>
-      <c r="E54">
-        <v>42.95000076293945</v>
-      </c>
       <c r="G54">
         <v>1</v>
       </c>
@@ -3869,28 +3510,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.4247565979003906</v>
+        <v>0.3468975128173828</v>
       </c>
       <c r="J54">
-        <v>84.37999725341797</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.3441207585780601</v>
-      </c>
-      <c r="D55">
-        <v>0.4245793124039968</v>
-      </c>
-      <c r="E55">
-        <v>42.93999862670898</v>
-      </c>
       <c r="G55">
         <v>0</v>
       </c>
@@ -3898,28 +3524,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>16.18300747070312</v>
+        <v>16.75026796875</v>
       </c>
       <c r="J55">
-        <v>0.1599999964237213</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.3428828951304521</v>
-      </c>
-      <c r="D56">
-        <v>0.403250386317571</v>
-      </c>
-      <c r="E56">
-        <v>43.04000091552734</v>
-      </c>
       <c r="G56">
         <v>1</v>
       </c>
@@ -3927,28 +3538,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.4412967391967774</v>
+        <v>0.3492199478149414</v>
       </c>
       <c r="J56">
-        <v>84.1199951171875</v>
+        <v>87.56</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>0.3416888318895324</v>
-      </c>
-      <c r="D57">
-        <v>0.402396152416865</v>
-      </c>
-      <c r="E57">
-        <v>43.02999877929688</v>
-      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -3956,28 +3552,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>15.35060288085938</v>
+        <v>16.42564711914062</v>
       </c>
       <c r="J57">
-        <v>0.1400000005960464</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.3409170677991417</v>
-      </c>
-      <c r="D58">
-        <v>0.404106726249059</v>
-      </c>
-      <c r="E58">
-        <v>43.06999969482422</v>
-      </c>
       <c r="G58">
         <v>1</v>
       </c>
@@ -3985,28 +3566,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.4212296920776367</v>
+        <v>0.3489176033020019</v>
       </c>
       <c r="J58">
-        <v>84.83999633789062</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.3407964745188147</v>
-      </c>
-      <c r="D59">
-        <v>0.4241237044334412</v>
-      </c>
-      <c r="E59">
-        <v>43.04000091552734</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -4014,28 +3580,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>15.41772563476563</v>
+        <v>15.9927525390625</v>
       </c>
       <c r="J59">
-        <v>0.199999988079071</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>0.3389375312783854</v>
-      </c>
-      <c r="D60">
-        <v>0.3983847498893738</v>
-      </c>
-      <c r="E60">
-        <v>43.02999877929688</v>
-      </c>
       <c r="G60">
         <v>1</v>
       </c>
@@ -4043,28 +3594,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.4233309288024902</v>
+        <v>0.3521276641845703</v>
       </c>
       <c r="J60">
-        <v>84.57999420166016</v>
+        <v>87.34</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.3383408548628412</v>
-      </c>
-      <c r="D61">
-        <v>0.4032732049624125</v>
-      </c>
-      <c r="E61">
-        <v>43.06000137329102</v>
-      </c>
       <c r="G61">
         <v>0</v>
       </c>
@@ -4072,28 +3608,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>15.43767612304688</v>
+        <v>16.09087900390625</v>
       </c>
       <c r="J61">
-        <v>0.1599999964237213</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>0.3373404412977095</v>
-      </c>
-      <c r="D62">
-        <v>0.420290728410085</v>
-      </c>
-      <c r="E62">
-        <v>43.09000015258789</v>
-      </c>
       <c r="G62">
         <v>1</v>
       </c>
@@ -4101,28 +3622,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.4166458015441895</v>
+        <v>0.3487767799377441</v>
       </c>
       <c r="J62">
-        <v>85.05999755859375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <v>0.3352966272249455</v>
-      </c>
-      <c r="D63">
-        <v>0.4166509211063385</v>
-      </c>
-      <c r="E63">
-        <v>43.09999847412109</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
@@ -4130,28 +3636,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>15.64644985351562</v>
+        <v>16.66092124023438</v>
       </c>
       <c r="J63">
-        <v>0.1799999922513962</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>0.3350465112343067</v>
-      </c>
-      <c r="D64">
-        <v>0.4041481018066406</v>
-      </c>
-      <c r="E64">
-        <v>43.11999893188477</v>
-      </c>
       <c r="G64">
         <v>1</v>
       </c>
@@ -4159,28 +3650,13 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.4165096771240234</v>
+        <v>0.3457800956726074</v>
       </c>
       <c r="J64">
-        <v>85.27999877929688</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>0.3342396685989892</v>
-      </c>
-      <c r="D65">
-        <v>0.4125958681106567</v>
-      </c>
-      <c r="E65">
-        <v>43.11000061035156</v>
-      </c>
+        <v>87.98</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>0</v>
       </c>
@@ -4188,28 +3664,13 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>15.72116513671875</v>
+        <v>16.14613920898438</v>
       </c>
       <c r="J65">
-        <v>0.1400000005960464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66">
-        <v>64</v>
-      </c>
-      <c r="C66">
-        <v>0.3385637148124416</v>
-      </c>
-      <c r="D66">
-        <v>0.397607038418452</v>
-      </c>
-      <c r="E66">
-        <v>43.09999847412109</v>
-      </c>
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>1</v>
       </c>
@@ -4217,28 +3678,13 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.4114863555908203</v>
+        <v>0.3502704177856445</v>
       </c>
       <c r="J66">
-        <v>85.25999450683594</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>0.3367115289457445</v>
-      </c>
-      <c r="D67">
-        <v>0.4025231798489888</v>
-      </c>
-      <c r="E67">
-        <v>43.07999801635742</v>
-      </c>
+        <v>87.56</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>0</v>
       </c>
@@ -4246,28 +3692,13 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>15.90764580078125</v>
+        <v>16.66256455078125</v>
       </c>
       <c r="J67">
-        <v>0.1400000005960464</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>0.3368724033357651</v>
-      </c>
-      <c r="D68">
-        <v>0.4013661444187164</v>
-      </c>
-      <c r="E68">
-        <v>43.09000015258789</v>
-      </c>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>1</v>
       </c>
@@ -4275,28 +3706,13 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.4098735076904297</v>
+        <v>0.3541051788330078</v>
       </c>
       <c r="J68">
-        <v>85.13999938964844</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>0.3363510862113984</v>
-      </c>
-      <c r="D69">
-        <v>0.4027361869812012</v>
-      </c>
-      <c r="E69">
-        <v>43.07999801635742</v>
-      </c>
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>0</v>
       </c>
@@ -4304,28 +3720,13 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>16.07451743164063</v>
+        <v>17.12142055664063</v>
       </c>
       <c r="J69">
-        <v>0.1400000005960464</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>0.3362428676791308</v>
-      </c>
-      <c r="D70">
-        <v>0.4167465070883433</v>
-      </c>
-      <c r="E70">
-        <v>43.09000015258789</v>
-      </c>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>1</v>
       </c>
@@ -4333,28 +3734,13 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.4112185470581055</v>
+        <v>0.3458689842224121</v>
       </c>
       <c r="J70">
-        <v>85.47999572753906</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>0.3351303351119282</v>
-      </c>
-      <c r="D71">
-        <v>0.4194151560465495</v>
-      </c>
-      <c r="E71">
-        <v>43.06999969482422</v>
-      </c>
+        <v>87.59999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>0</v>
       </c>
@@ -4362,13 +3748,13 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>16.2721765625</v>
+        <v>16.78127163085938</v>
       </c>
       <c r="J71">
-        <v>0.1400000005960464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>1</v>
       </c>
@@ -4376,13 +3762,13 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.4103367294311523</v>
+        <v>0.3522476135253906</v>
       </c>
       <c r="J72">
-        <v>85.31999969482422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>0</v>
       </c>
@@ -4390,13 +3776,13 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>16.34442080078125</v>
+        <v>16.68298315429687</v>
       </c>
       <c r="J73">
-        <v>0.1400000005960464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>1</v>
       </c>
@@ -4404,13 +3790,13 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.4076011657714844</v>
+        <v>0.341395384979248</v>
       </c>
       <c r="J74">
-        <v>85.55999755859375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>88.06</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>0</v>
       </c>
@@ -4418,13 +3804,13 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>16.4371525390625</v>
+        <v>17.01737709960938</v>
       </c>
       <c r="J75">
-        <v>0.1400000005960464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>1</v>
       </c>
@@ -4432,13 +3818,13 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.4037169059753418</v>
+        <v>0.3402059547424316</v>
       </c>
       <c r="J76">
-        <v>85.57999420166016</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>87.92</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>0</v>
       </c>
@@ -4446,13 +3832,13 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>16.55807109375</v>
+        <v>16.99974350585937</v>
       </c>
       <c r="J77">
-        <v>0.1400000005960464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>1</v>
       </c>
@@ -4460,13 +3846,13 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.4056659332275391</v>
+        <v>0.3392648513793945</v>
       </c>
       <c r="J78">
-        <v>85.43999481201172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>87.98</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>0</v>
       </c>
@@ -4474,13 +3860,13 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>16.75680864257813</v>
+        <v>17.1349365234375</v>
       </c>
       <c r="J79">
-        <v>0.119999997317791</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>1</v>
       </c>
@@ -4488,10 +3874,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.4008887413024902</v>
+        <v>0.341089754486084</v>
       </c>
       <c r="J80">
-        <v>85.55999755859375</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4502,10 +3888,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>16.96875922851563</v>
+        <v>17.21280356445313</v>
       </c>
       <c r="J81">
-        <v>0.09999999403953552</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4516,10 +3902,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.3968348999023438</v>
+        <v>0.3422660606384277</v>
       </c>
       <c r="J82">
-        <v>85.86000061035156</v>
+        <v>87.95999999999999</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4530,10 +3916,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>17.1050134765625</v>
+        <v>17.20107431640625</v>
       </c>
       <c r="J83">
-        <v>0.07999999821186066</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -4544,10 +3930,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.3962516647338867</v>
+        <v>0.3401631141662598</v>
       </c>
       <c r="J84">
-        <v>85.86000061035156</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="85" spans="7:10">
@@ -4558,10 +3944,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>17.178093359375</v>
+        <v>16.77488994140625</v>
       </c>
       <c r="J85">
-        <v>0.07999999821186066</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -4572,10 +3958,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.3945583740234375</v>
+        <v>0.3408814964294434</v>
       </c>
       <c r="J86">
-        <v>85.77999877929688</v>
+        <v>87.98</v>
       </c>
     </row>
     <row r="87" spans="7:10">
@@ -4586,10 +3972,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>17.28172626953125</v>
+        <v>16.86849145507813</v>
       </c>
       <c r="J87">
-        <v>0.09999999403953552</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -4600,10 +3986,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.3975815895080567</v>
+        <v>0.3410825798034668</v>
       </c>
       <c r="J88">
-        <v>85.93999481201172</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="89" spans="7:10">
@@ -4614,10 +4000,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>17.4803763671875</v>
+        <v>16.95981333007812</v>
       </c>
       <c r="J89">
-        <v>0.05999999865889549</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="90" spans="7:10">
@@ -4628,10 +4014,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.3983114952087402</v>
+        <v>0.3405065010070801</v>
       </c>
       <c r="J90">
-        <v>85.59999847412109</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="91" spans="7:10">
@@ -4642,10 +4028,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>17.59700805664063</v>
+        <v>17.02804096679688</v>
       </c>
       <c r="J91">
-        <v>0.05999999865889549</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="92" spans="7:10">
@@ -4656,10 +4042,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.3898417900085449</v>
+        <v>0.340673063659668</v>
       </c>
       <c r="J92">
-        <v>85.83999633789062</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="93" spans="7:10">
@@ -4670,10 +4056,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>17.65502880859375</v>
+        <v>17.04693447265625</v>
       </c>
       <c r="J93">
-        <v>0.05999999865889549</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="94" spans="7:10">
@@ -4684,10 +4070,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.3933578414916992</v>
+        <v>0.3404660629272461</v>
       </c>
       <c r="J94">
-        <v>85.75999450683594</v>
+        <v>87.78</v>
       </c>
     </row>
     <row r="95" spans="7:10">
@@ -4698,10 +4084,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>17.1505017578125</v>
+        <v>16.68061821289063</v>
       </c>
       <c r="J95">
-        <v>0.07999999821186066</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="96" spans="7:10">
@@ -4712,10 +4098,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.3942354995727539</v>
+        <v>0.3411407981872558</v>
       </c>
       <c r="J96">
-        <v>85.81999969482422</v>
+        <v>87.95999999999999</v>
       </c>
     </row>
     <row r="97" spans="7:10">
@@ -4726,10 +4112,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>17.2910712890625</v>
+        <v>16.70693349609375</v>
       </c>
       <c r="J97">
-        <v>0.07999999821186066</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="98" spans="7:10">
@@ -4740,10 +4126,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.3926767585754394</v>
+        <v>0.3412516639709472</v>
       </c>
       <c r="J98">
-        <v>85.97999572753906</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="99" spans="7:10">
@@ -4754,10 +4140,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>17.40734584960937</v>
+        <v>16.73298823242187</v>
       </c>
       <c r="J99">
-        <v>0.07999999821186066</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="100" spans="7:10">
@@ -4768,10 +4154,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.3917390785217285</v>
+        <v>0.3409619407653808</v>
       </c>
       <c r="J100">
-        <v>86.04000091552734</v>
+        <v>87.95999999999999</v>
       </c>
     </row>
     <row r="101" spans="7:10">
@@ -4782,10 +4168,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>17.50434594726563</v>
+        <v>16.76066943359375</v>
       </c>
       <c r="J101">
-        <v>0.07999999821186066</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="102" spans="7:10">
@@ -4796,10 +4182,10 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.3915240936279297</v>
+        <v>0.3409296813964844</v>
       </c>
       <c r="J102">
-        <v>85.93999481201172</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="103" spans="7:10">
@@ -4810,10 +4196,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>17.547694140625</v>
+        <v>16.79369833984375</v>
       </c>
       <c r="J103">
-        <v>0.07999999821186066</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="104" spans="7:10">
@@ -4824,514 +4210,10 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.3895941055297851</v>
+        <v>0.3408970367431641</v>
       </c>
       <c r="J104">
-        <v>86.04000091552734</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>52</v>
-      </c>
-      <c r="I105">
-        <v>17.15316083984375</v>
-      </c>
-      <c r="J105">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>52</v>
-      </c>
-      <c r="I106">
-        <v>0.3946549118041992</v>
-      </c>
-      <c r="J106">
-        <v>85.81999969482422</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <v>17.20854008789063</v>
-      </c>
-      <c r="J107">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <v>0.3933382041931152</v>
-      </c>
-      <c r="J108">
-        <v>85.79999542236328</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>54</v>
-      </c>
-      <c r="I109">
-        <v>17.2743154296875</v>
-      </c>
-      <c r="J109">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>54</v>
-      </c>
-      <c r="I110">
-        <v>0.3932217254638672</v>
-      </c>
-      <c r="J110">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="7:10">
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>55</v>
-      </c>
-      <c r="I111">
-        <v>17.32456840820312</v>
-      </c>
-      <c r="J111">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="112" spans="7:10">
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>55</v>
-      </c>
-      <c r="I112">
-        <v>0.3923100929260254</v>
-      </c>
-      <c r="J112">
-        <v>85.97999572753906</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10">
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>56</v>
-      </c>
-      <c r="I113">
-        <v>17.37816225585938</v>
-      </c>
-      <c r="J113">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="114" spans="7:10">
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>56</v>
-      </c>
-      <c r="I114">
-        <v>0.391391146850586</v>
-      </c>
-      <c r="J114">
-        <v>86.05999755859375</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10">
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>57</v>
-      </c>
-      <c r="I115">
-        <v>17.44631596679687</v>
-      </c>
-      <c r="J115">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10">
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>57</v>
-      </c>
-      <c r="I116">
-        <v>0.3907629516601562</v>
-      </c>
-      <c r="J116">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10">
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>58</v>
-      </c>
-      <c r="I117">
-        <v>17.48502353515625</v>
-      </c>
-      <c r="J117">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10">
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>58</v>
-      </c>
-      <c r="I118">
-        <v>0.3899902595520019</v>
-      </c>
-      <c r="J118">
-        <v>85.97999572753906</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10">
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>59</v>
-      </c>
-      <c r="I119">
-        <v>17.53406484375</v>
-      </c>
-      <c r="J119">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10">
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>59</v>
-      </c>
-      <c r="I120">
-        <v>0.3898303878784179</v>
-      </c>
-      <c r="J120">
-        <v>86.04000091552734</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10">
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>60</v>
-      </c>
-      <c r="I121">
-        <v>17.61664155273438</v>
-      </c>
-      <c r="J121">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10">
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>60</v>
-      </c>
-      <c r="I122">
-        <v>0.3886757858276367</v>
-      </c>
-      <c r="J122">
-        <v>86.09999847412109</v>
-      </c>
-    </row>
-    <row r="123" spans="7:10">
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>61</v>
-      </c>
-      <c r="I123">
-        <v>17.66875014648437</v>
-      </c>
-      <c r="J123">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="124" spans="7:10">
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>61</v>
-      </c>
-      <c r="I124">
-        <v>0.3877242149353027</v>
-      </c>
-      <c r="J124">
-        <v>86.1199951171875</v>
-      </c>
-    </row>
-    <row r="125" spans="7:10">
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>62</v>
-      </c>
-      <c r="I125">
-        <v>17.7346197265625</v>
-      </c>
-      <c r="J125">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="126" spans="7:10">
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>62</v>
-      </c>
-      <c r="I126">
-        <v>0.3871814468383789</v>
-      </c>
-      <c r="J126">
-        <v>86.15999603271484</v>
-      </c>
-    </row>
-    <row r="127" spans="7:10">
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>63</v>
-      </c>
-      <c r="I127">
-        <v>17.78256108398438</v>
-      </c>
-      <c r="J127">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="128" spans="7:10">
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>63</v>
-      </c>
-      <c r="I128">
-        <v>0.3865451347351074</v>
-      </c>
-      <c r="J128">
-        <v>86.13999938964844</v>
-      </c>
-    </row>
-    <row r="129" spans="7:10">
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>64</v>
-      </c>
-      <c r="I129">
-        <v>17.52231547851563</v>
-      </c>
-      <c r="J129">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="130" spans="7:10">
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>64</v>
-      </c>
-      <c r="I130">
-        <v>0.389629899597168</v>
-      </c>
-      <c r="J130">
-        <v>86.1199951171875</v>
-      </c>
-    </row>
-    <row r="131" spans="7:10">
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>65</v>
-      </c>
-      <c r="I131">
-        <v>17.55066245117187</v>
-      </c>
-      <c r="J131">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="132" spans="7:10">
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>65</v>
-      </c>
-      <c r="I132">
-        <v>0.3892625984191895</v>
-      </c>
-      <c r="J132">
-        <v>86.07999420166016</v>
-      </c>
-    </row>
-    <row r="133" spans="7:10">
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>66</v>
-      </c>
-      <c r="I133">
-        <v>17.58696923828125</v>
-      </c>
-      <c r="J133">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="134" spans="7:10">
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>66</v>
-      </c>
-      <c r="I134">
-        <v>0.3890755340576172</v>
-      </c>
-      <c r="J134">
-        <v>86.09999847412109</v>
-      </c>
-    </row>
-    <row r="135" spans="7:10">
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>67</v>
-      </c>
-      <c r="I135">
-        <v>17.62305244140625</v>
-      </c>
-      <c r="J135">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="136" spans="7:10">
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>67</v>
-      </c>
-      <c r="I136">
-        <v>0.3888453758239746</v>
-      </c>
-      <c r="J136">
-        <v>86.07999420166016</v>
-      </c>
-    </row>
-    <row r="137" spans="7:10">
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>68</v>
-      </c>
-      <c r="I137">
-        <v>17.6515861328125</v>
-      </c>
-      <c r="J137">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="138" spans="7:10">
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>68</v>
-      </c>
-      <c r="I138">
-        <v>0.3885199234008789</v>
-      </c>
-      <c r="J138">
-        <v>86.09999847412109</v>
-      </c>
-    </row>
-    <row r="139" spans="7:10">
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>69</v>
-      </c>
-      <c r="I139">
-        <v>17.68059775390625</v>
-      </c>
-      <c r="J139">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="140" spans="7:10">
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>69</v>
-      </c>
-      <c r="I140">
-        <v>0.3882934280395508</v>
-      </c>
-      <c r="J140">
-        <v>86.05999755859375</v>
+        <v>87.95999999999999</v>
       </c>
     </row>
   </sheetData>
